--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,65</t>
+          <t>4,6; 7,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,97</t>
+          <t>4,04; 7,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,77</t>
+          <t>3,43; 6,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,19</t>
+          <t>1,59; 4,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,26</t>
+          <t>4,53; 7,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,66</t>
+          <t>4,15; 6,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,91</t>
+          <t>4,09; 6,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,6</t>
+          <t>1,48; 3,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,97</t>
+          <t>4,89; 6,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,29</t>
+          <t>4,47; 6,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,32</t>
+          <t>4,11; 6,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,31</t>
+          <t>1,77; 3,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,59</t>
+          <t>3,55; 5,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,44</t>
+          <t>4,44; 6,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,37</t>
+          <t>3,41; 5,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,38</t>
+          <t>1,7; 3,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,81</t>
+          <t>5,12; 7,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 8,53</t>
+          <t>5,97; 8,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,11</t>
+          <t>3,16; 4,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,78</t>
+          <t>2,14; 3,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 6,36</t>
+          <t>4,54; 6,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,18</t>
+          <t>5,46; 7,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,85</t>
+          <t>3,55; 4,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,21</t>
+          <t>2,13; 3,23</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,84</t>
+          <t>2,22; 5,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,35</t>
+          <t>0,37; 2,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,48</t>
+          <t>2,06; 5,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,15</t>
+          <t>0,95; 3,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,48</t>
+          <t>3,32; 7,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,99</t>
+          <t>3,42; 8,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,51</t>
+          <t>3,41; 7,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,96</t>
+          <t>0,98; 2,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,73</t>
+          <t>3,04; 5,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,51</t>
+          <t>2,13; 4,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,63</t>
+          <t>3,21; 5,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,62</t>
+          <t>1,17; 2,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,13; 5,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,61</t>
+          <t>4,02; 5,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,09</t>
+          <t>3,69; 5,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,97</t>
+          <t>1,82; 3,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,12</t>
+          <t>5,44; 7,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,3</t>
+          <t>3,91; 5,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>2,04; 3,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,83; 6,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,04</t>
+          <t>4,93; 6,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,9</t>
+          <t>3,95; 4,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,84</t>
+          <t>2,08; 2,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,05</t>
+          <t>4,15; 7,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,8</t>
+          <t>3,46; 6,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,36</t>
+          <t>4,63; 7,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,65</t>
+          <t>4,11; 6,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,92</t>
+          <t>3,99; 6,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,92</t>
+          <t>4,91; 6,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,43</t>
+          <t>4,48; 6,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,29</t>
+          <t>4,08; 6,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,64</t>
+          <t>3,46; 5,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,64</t>
+          <t>4,43; 6,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,34</t>
+          <t>3,43; 5,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,83</t>
+          <t>5,11; 7,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,47</t>
+          <t>5,96; 8,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,98</t>
+          <t>3,25; 5,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,24</t>
+          <t>4,65; 6,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,1</t>
+          <t>5,44; 7,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,81</t>
+          <t>3,56; 4,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,75</t>
+          <t>2,21; 5,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,47</t>
+          <t>0,38; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,62</t>
+          <t>2,21; 5,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,32</t>
+          <t>3,3; 7,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,14</t>
+          <t>3,5; 8,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,29</t>
+          <t>3,53; 7,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,67</t>
+          <t>3,21; 5,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,63</t>
+          <t>2,13; 4,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,75</t>
+          <t>3,2; 5,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,74</t>
+          <t>4,08; 5,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 5,58</t>
+          <t>4,07; 5,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,17</t>
+          <t>3,63; 5,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,18; 6,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,16</t>
+          <t>5,43; 7,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,32</t>
+          <t>3,88; 5,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,03</t>
+          <t>4,82; 6,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 6,06</t>
+          <t>4,95; 6,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 4,97</t>
+          <t>3,96; 4,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,68</t>
+          <t>4,67; 7,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,12</t>
+          <t>4,03; 6,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,76</t>
+          <t>3,45; 6,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,18</t>
+          <t>1,64; 4,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,28</t>
+          <t>4,61; 7,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,56</t>
+          <t>4,15; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,84</t>
+          <t>4,07; 6,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,5</t>
+          <t>1,47; 3,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 6,97</t>
+          <t>5,0; 6,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,31</t>
+          <t>4,47; 6,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,41</t>
+          <t>4,16; 6,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,41</t>
+          <t>1,72; 3,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,54</t>
+          <t>3,52; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,47</t>
+          <t>4,23; 6,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,32</t>
+          <t>3,41; 5,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,39</t>
+          <t>1,72; 3,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,66</t>
+          <t>5,24; 7,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 8,35</t>
+          <t>5,92; 8,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,08</t>
+          <t>3,27; 5,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,69</t>
+          <t>2,16; 3,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,3</t>
+          <t>4,68; 6,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,02</t>
+          <t>5,45; 7,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,87</t>
+          <t>3,55; 4,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,23</t>
+          <t>2,13; 3,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,93</t>
+          <t>2,3; 5,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,44</t>
+          <t>0,34; 2,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,49</t>
+          <t>2,11; 5,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,27</t>
+          <t>0,95; 3,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,4</t>
+          <t>3,3; 7,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,05</t>
+          <t>3,5; 7,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,45</t>
+          <t>3,47; 7,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,98</t>
+          <t>0,94; 2,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,85</t>
+          <t>3,07; 5,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,49</t>
+          <t>2,14; 4,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,81</t>
+          <t>3,15; 5,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,71</t>
+          <t>1,18; 2,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,64</t>
+          <t>4,08; 5,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,54</t>
+          <t>4,1; 5,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,08</t>
+          <t>3,64; 5,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,02</t>
+          <t>1,75; 2,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,86</t>
+          <t>5,18; 6,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,08</t>
+          <t>5,39; 7,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,24</t>
+          <t>3,86; 5,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,13</t>
+          <t>2,04; 3,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,02</t>
+          <t>4,81; 5,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,1</t>
+          <t>4,92; 6,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 4,98</t>
+          <t>3,93; 4,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,85</t>
+          <t>2,04; 2,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,19</t>
+          <t>1,64; 4,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,6</t>
+          <t>1,52; 3,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,31</t>
+          <t>1,78; 3,39</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,38</t>
+          <t>1,49; 3,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,78</t>
+          <t>1,97; 3,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,21</t>
+          <t>1,92; 3,18</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,15</t>
+          <t>0,96; 3,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,96</t>
+          <t>0,99; 3,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,62</t>
+          <t>1,21; 2,75</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,97</t>
+          <t>1,63; 2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>1,95; 3,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,84</t>
+          <t>1,93; 2,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,65</t>
+          <t>4,62; 7,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,97</t>
+          <t>4,01; 7,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,77</t>
+          <t>3,53; 6,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,26</t>
+          <t>1,57; 4,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,26</t>
+          <t>4,55; 7,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,66</t>
+          <t>4,14; 6,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,91</t>
+          <t>3,91; 6,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,7</t>
+          <t>1,56; 3,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,97</t>
+          <t>4,95; 7,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,29</t>
+          <t>4,44; 6,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,32</t>
+          <t>4,19; 6,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,39</t>
+          <t>1,84; 3,34</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,59</t>
+          <t>3,49; 5,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,44</t>
+          <t>4,44; 6,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,37</t>
+          <t>3,49; 5,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,27</t>
+          <t>1,38; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,81</t>
+          <t>5,26; 7,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 8,53</t>
+          <t>5,99; 8,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,11</t>
+          <t>3,23; 4,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,77</t>
+          <t>1,92; 3,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 6,36</t>
+          <t>4,65; 6,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,18</t>
+          <t>5,43; 7,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,85</t>
+          <t>3,62; 4,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,18</t>
+          <t>1,89; 3,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,84</t>
+          <t>2,22; 5,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,35</t>
+          <t>0,38; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,48</t>
+          <t>2,22; 5,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,14</t>
+          <t>1,01; 3,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,48</t>
+          <t>3,4; 7,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,99</t>
+          <t>3,41; 8,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,51</t>
+          <t>3,37; 7,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,16</t>
+          <t>1,04; 3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,73</t>
+          <t>3,11; 5,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,51</t>
+          <t>2,16; 4,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,63</t>
+          <t>3,24; 5,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,75</t>
+          <t>1,2; 2,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 5,69</t>
+          <t>4,04; 5,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,61</t>
+          <t>4,04; 5,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,09</t>
+          <t>3,67; 5,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,99</t>
+          <t>1,65; 2,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,83</t>
+          <t>5,17; 6,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,12</t>
+          <t>5,44; 7,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,3</t>
+          <t>3,88; 5,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,14</t>
+          <t>1,97; 3,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 5,94</t>
+          <t>4,86; 6,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,04</t>
+          <t>4,94; 6,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,9</t>
+          <t>3,94; 4,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,84</t>
+          <t>1,97; 2,85</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con dos o más personas por habitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>61887</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52458</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>37000</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13666</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>76345</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>70692</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51964</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17691</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>138232</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>123150</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88964</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31357</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>47476; 79134</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38877; 67987</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26448; 50532</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8035; 22141</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59740; 94056</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>55188; 88112</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38711; 67828</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11638; 27707</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>115929; 163754</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>102280; 146236</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72909; 108109</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23117; 41888</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75065</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>104852</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>89020</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50979</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>100989</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>124578</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>80532</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>61405</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>176054</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>229430</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>169552</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>112384</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58837; 93770</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>86791; 128879</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>72116; 109717</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31465; 73095</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>83295; 121106</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>104889; 148541</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>63859; 98664</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42664; 82941</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>152199; 205380</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>201288; 261082</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>146341; 198015</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>85049; 144076</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20355</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5040</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19104</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11887</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23725</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24429</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27818</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11890</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44080</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29469</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>46922</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23777</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12233; 31524</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1843; 11550</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12054; 28608</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6452; 22362</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16177; 34913</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15635; 36875</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18426; 40515</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6788; 21187</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31911; 60276</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20330; 43818</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35234; 63738</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15533; 36309</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>157307</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>162350</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>145123</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76532</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>201060</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>219699</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>160315</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>90986</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>358366</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>382049</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>305438</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>167518</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>132020; 183004</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>137511; 189449</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>123278; 170536</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56641; 100759</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>174184; 232663</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>192769; 252109</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>136262; 186503</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>71419; 113594</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>322844; 400050</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>343387; 424303</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>270605; 341321</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>138562; 200697</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>